--- a/Data/Data cleaned/data_clean_LFP_6.xlsx
+++ b/Data/Data cleaned/data_clean_LFP_6.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,6 +815,166 @@
         <v>3.450388052425483</v>
       </c>
     </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>690.7263067268281</v>
+      </c>
+      <c r="B55">
+        <v>3.297039256064101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>703.5215386394692</v>
+      </c>
+      <c r="B56">
+        <v>3.570619067434025</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>716.3164744081383</v>
+      </c>
+      <c r="B57">
+        <v>3.595210992963989</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>729.1123443748182</v>
+      </c>
+      <c r="B58">
+        <v>3.64739398020987</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>741.9089686651438</v>
+      </c>
+      <c r="B59">
+        <v>3.741341563926917</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>754.7062588248058</v>
+      </c>
+      <c r="B60">
+        <v>3.726873165075706</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>767.5030384722091</v>
+      </c>
+      <c r="B61">
+        <v>3.823033397015968</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>780.2930846050764</v>
+      </c>
+      <c r="B62">
+        <v>3.871280359772776</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>793.0842536776792</v>
+      </c>
+      <c r="B63">
+        <v>3.817877603097637</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>805.8775398180511</v>
+      </c>
+      <c r="B64">
+        <v>3.960464568911154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>818.6692734115825</v>
+      </c>
+      <c r="B65">
+        <v>4.015123436202025</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>831.4604455246634</v>
+      </c>
+      <c r="B66">
+        <v>4.045855928197632</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>844.2507931163231</v>
+      </c>
+      <c r="B67">
+        <v>4.107577444077196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>857.0410899590346</v>
+      </c>
+      <c r="B68">
+        <v>3.958870153077689</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>869.8314891312872</v>
+      </c>
+      <c r="B69">
+        <v>4.118108252551195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>882.6246085550008</v>
+      </c>
+      <c r="B70">
+        <v>4.177361263636199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>895.4145169297267</v>
+      </c>
+      <c r="B71">
+        <v>4.236015966865098</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>908.0175881777756</v>
+      </c>
+      <c r="B72">
+        <v>4.281804952552639</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>920.8093625469451</v>
+      </c>
+      <c r="B73">
+        <v>4.31471035902866</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>933.6031899286983</v>
+      </c>
+      <c r="B74">
+        <v>4.244449455261748</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
